--- a/xlsx/官方语言_intext.xlsx
+++ b/xlsx/官方语言_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>官方语言</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_官方语言</t>
+    <t>国家</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E8%BD%84%E6%AC%8A</t>
   </si>
   <si>
-    <t>管轄權</t>
+    <t>管辖权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91</t>
@@ -71,19 +71,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E</t>
   </si>
   <si>
-    <t>日語</t>
+    <t>日语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E8%AA%9E</t>
   </si>
   <si>
-    <t>韓語</t>
+    <t>韩语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%96%E6%B0%91</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
+    <t>法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E6%96%87</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E6%95%B8%E6%B0%91%E6%97%8F</t>
   </si>
   <si>
-    <t>少數民族</t>
+    <t>少数民族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
@@ -209,9 +209,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
   </si>
   <si>
-    <t>英语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
   </si>
   <si>
@@ -233,7 +230,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E6%95%B8%E6%B0%91%E6%97%8F%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>少數民族語言</t>
+    <t>少数民族语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
@@ -251,7 +248,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>國家語言</t>
+    <t>国家语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AF%AD%E8%A8%80%E5%88%97%E8%A1%A8</t>
@@ -269,7 +266,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%B8%E6%93%9A</t>
   </si>
   <si>
-    <t>維基數據</t>
+    <t>维基数据</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/The_World_Factbook</t>
@@ -1545,7 +1542,7 @@
         <v>63</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="G32" t="n">
         <v>4</v>
@@ -1571,10 +1568,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1600,10 +1597,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1629,10 +1626,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1658,10 +1655,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1687,10 +1684,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1716,10 +1713,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1745,10 +1742,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1774,10 +1771,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -1803,10 +1800,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1832,10 +1829,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1861,10 +1858,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
